--- a/CHI_SCHOOL_ANALYSIS.xlsx
+++ b/CHI_SCHOOL_ANALYSIS.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SelfLearning\Projects\Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D74015D0-E591-43D0-919E-A7A75EA954EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B14A9B5-E58A-44B9-A303-5D8222303CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHI_SCHOOL_ANALYSIS" sheetId="1" r:id="rId1"/>
@@ -18,45 +18,37 @@
     <sheet name="SunBurst Chart" sheetId="6" r:id="rId3"/>
     <sheet name="Column Chart" sheetId="7" r:id="rId4"/>
     <sheet name="Pareto Chart" sheetId="8" r:id="rId5"/>
+    <sheet name="Analysis" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">tbl_1!$C$2:$C$567</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">tbl_1!$B$2:$C$567</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">tbl_1!$H$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">tbl_1!$H$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">tbl_1!$H$2:$H$567</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">tbl_1!$B$2:$C$567</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">tbl_1!$H$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">tbl_1!$H$2:$H$567</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">tbl_1!$B$2:$C$567</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">tbl_1!$H$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">tbl_1!$H$2:$H$567</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">tbl_1!$C$2:$C$567</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">tbl_1!$H$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">tbl_1!$H$2:$H$567</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">tbl_1!$H$2:$H$567</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">tbl_1!$C$2:$C$567</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">tbl_1!$H$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">tbl_1!$H$2:$H$567</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">tbl_1!$C$2:$C$567</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">tbl_1!$H$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">tbl_1!$H$2:$H$567</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">tbl_1!$B$2:$C$567</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">tbl_1!$C$2:$C$567</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">tbl_1!$H$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">tbl_1!$H$2:$H$567</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">tbl_1!$C$2:$C$567</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">tbl_1!$H$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">tbl_1!$H$2:$H$567</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">tbl_1!$C$2:$C$567</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="125">
   <si>
     <t>COMMUNITY_AREA_NUMBER</t>
   </si>
@@ -327,12 +319,117 @@
   <si>
     <t>Sum of Total_College_Enrollments</t>
   </si>
+  <si>
+    <t>Elementary, Middle, or High School</t>
+  </si>
+  <si>
+    <t>total_college_enrollments</t>
+  </si>
+  <si>
+    <t>community_area_name</t>
+  </si>
+  <si>
+    <t>name_of_school</t>
+  </si>
+  <si>
+    <t>average_student_attendance</t>
+  </si>
+  <si>
+    <t>John Charles Haines Elementary School</t>
+  </si>
+  <si>
+    <t>James Ward Elementary School</t>
+  </si>
+  <si>
+    <t>Edgar Allan Poe Elementary Classical School</t>
+  </si>
+  <si>
+    <t>Rachel Carson Elementary School</t>
+  </si>
+  <si>
+    <t>Orozco Fine Arts &amp; Sciences Elementary School</t>
+  </si>
+  <si>
+    <t>average_teacher_attendance</t>
+  </si>
+  <si>
+    <t>Lazaro Cardenas Elementary School</t>
+  </si>
+  <si>
+    <t>George W Curtis Elementary School</t>
+  </si>
+  <si>
+    <t>Louis Armstrong Math &amp; Science Elementary School</t>
+  </si>
+  <si>
+    <t>Lenart Elementary Regional Gifted Center</t>
+  </si>
+  <si>
+    <t>Mark Twain Elementary School</t>
+  </si>
+  <si>
+    <t>safety_score</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln Elementary School</t>
+  </si>
+  <si>
+    <t>Augustus H Burley Elementary School</t>
+  </si>
+  <si>
+    <t>Annie Keller Elementary Gifted Magnet School</t>
+  </si>
+  <si>
+    <t>Alexander Graham Bell Elementary School</t>
+  </si>
+  <si>
+    <t>Edgebrook Elementary School</t>
+  </si>
+  <si>
+    <t>Ellen Mitchell Elementary School</t>
+  </si>
+  <si>
+    <t>James E McDade Elementary Classical School</t>
+  </si>
+  <si>
+    <t>James G Blaine Elementary School</t>
+  </si>
+  <si>
+    <t>LaSalle Elementary Language Academy</t>
+  </si>
+  <si>
+    <t>Mary E Courtenay Elementary Language Arts Center</t>
+  </si>
+  <si>
+    <t>Northside College Preparatory High School</t>
+  </si>
+  <si>
+    <t>Northside Learning Center High School</t>
+  </si>
+  <si>
+    <t>Norwood Park Elementary School</t>
+  </si>
+  <si>
+    <t>Oriole Park Elementary School</t>
+  </si>
+  <si>
+    <t>Sauganash Elementary School</t>
+  </si>
+  <si>
+    <t>Stephen Decatur Classical Elementary School</t>
+  </si>
+  <si>
+    <t>Talman Elementary School</t>
+  </si>
+  <si>
+    <t>Wildwood Elementary School</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +563,12 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF171717"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -809,11 +912,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -859,7 +971,409 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF171717"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1255,15 +1769,1023 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total_college_enrollments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Analysis!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ES</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>HS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>258943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CC7-4A64-8D8B-0D35332EEB58}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="696770656"/>
+        <c:axId val="696772952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="696770656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696772952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696772952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696770656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average_student_attendance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Analysis!$D$2:$E$6</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Analysis!$D$2:$D$6</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Analysis!$D$2:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Edgar Allan Poe Elementary Classical School</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rachel Carson Elementary School</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Orozco Fine Arts &amp; Sciences Elementary School</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>James Ward Elementary School</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>John Charles Haines Elementary School</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08C1-4D00-A3A5-7FCD3DB3F55E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="62"/>
+        <c:axId val="696792960"/>
+        <c:axId val="696789024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="696792960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696789024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696789024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="696792960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average_teacher_attendance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Analysis!$H$2:$I$6</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Analysis!$H$2:$H$6</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Analysis!$H$2:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Lenart Elementary Regional Gifted Center</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mark Twain Elementary School</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Louis Armstrong Math &amp; Science Elementary School</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>George W Curtis Elementary School</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lazaro Cardenas Elementary School</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Analysis!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9DD-42EA-9BCB-1577C815FCE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="696785088"/>
+        <c:axId val="696788040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="696785088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696788040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696788040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="696785088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="size">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1301,7 +2823,7 @@
         <cx:series layoutId="sunburst" uniqueId="{D93B9887-8137-4A9E-B1C6-BBB905777004}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Total_College_Enrollments</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1322,10 +2844,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.23</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1360,7 +2882,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{8B80ADCD-EE4B-4213-A7D0-67B3C241CDBB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.22</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Total_College_Enrollments</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1474,6 +2996,126 @@
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -2993,6 +4635,1519 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3200,8 +6355,121 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B013FB2-C88C-4F05-A766-59069FD18615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D642513D-4F56-4EE9-83A9-137E8BCCC5FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B544899A-27BC-437B-9830-5F71AE2A8EF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Khadijah" refreshedDate="44647.729452546293" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="566">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Khadijah" refreshedDate="44647.729452546293" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="566" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="tbl_1"/>
   </cacheSource>
@@ -8909,7 +12177,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -9018,33 +12286,97 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tbl_1" displayName="tbl_1" ref="A1:H567" totalsRowShown="0">
-  <autoFilter ref="A1:H567"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_1" displayName="tbl_1" ref="A1:H567" totalsRowShown="0">
+  <autoFilter ref="A1:H567" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="COMMUNITY_AREA_NUMBER">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="COMMUNITY_AREA_NUMBER">
       <calculatedColumnFormula>CHI_SCHOOL_ANALYSIS!B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="SCHOOL_TYPE">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SCHOOL_TYPE">
       <calculatedColumnFormula>CHI_SCHOOL_ANALYSIS!D2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="COMMUNITY_AREA_NAME">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="COMMUNITY_AREA_NAME">
       <calculatedColumnFormula>CHI_SCHOOL_ANALYSIS!C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name=" SAFETY_SCORE">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name=" SAFETY_SCORE">
       <calculatedColumnFormula>CHI_SCHOOL_ANALYSIS!E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="AVERAGE_STUDENT_ATTENDANCE">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="AVERAGE_STUDENT_ATTENDANCE">
       <calculatedColumnFormula>CHI_SCHOOL_ANALYSIS!F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="AVERAGE_TEACHER_ATTENDANCE">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="AVERAGE_TEACHER_ATTENDANCE">
       <calculatedColumnFormula>CHI_SCHOOL_ANALYSIS!G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="PARENT_ENGAGEMENT_SCORE">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="PARENT_ENGAGEMENT_SCORE">
       <calculatedColumnFormula>CHI_SCHOOL_ANALYSIS!H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Total_College_Enrollments">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Total_College_Enrollments">
       <calculatedColumnFormula>CHI_SCHOOL_ANALYSIS!I2</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C537463D-2F4E-4864-8C45-075C7F395AB5}" name="Table1" displayName="Table1" ref="A1:B4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="18">
+  <autoFilter ref="A1:B4" xr:uid="{C537463D-2F4E-4864-8C45-075C7F395AB5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6EA4E319-D730-4E42-93A7-46767F5779FC}" name="Elementary, Middle, or High School" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{C0DACD87-948F-4BEE-ADDD-17C673220B80}" name="total_college_enrollments" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D90E4D63-C2FA-463A-9000-4254946DC197}" name="Table2" displayName="Table2" ref="A6:B16" totalsRowShown="0" headerRowDxfId="13" dataDxfId="14">
+  <autoFilter ref="A6:B16" xr:uid="{D90E4D63-C2FA-463A-9000-4254946DC197}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{62E981CB-3B26-4B16-83B1-44600DE49E02}" name="community_area_name" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{50492060-ADC7-487C-A0E4-3F38D243A726}" name="total_college_enrollments" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BE62EC9A-2CC9-46D7-8232-5ED6FB5C3134}" name="Table8" displayName="Table8" ref="D1:F6" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="D1:F6" xr:uid="{BE62EC9A-2CC9-46D7-8232-5ED6FB5C3134}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:F6">
+    <sortCondition ref="F2:F6"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CB1127F2-9264-4368-8B53-7EECDFE57BD8}" name="name_of_school" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{3E278EE7-7222-40F3-8EFF-6E7730E8641C}" name="Elementary, Middle, or High School" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{7CE06781-3B11-423F-B22C-F3DA2A1F3B16}" name="average_student_attendance" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2D96E984-EEB6-4A16-A5EC-91A504F1764F}" name="Table9" displayName="Table9" ref="H1:J6" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="H1:J6" xr:uid="{2D96E984-EEB6-4A16-A5EC-91A504F1764F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:J6">
+    <sortCondition ref="J2:J6"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5FF3EF91-BFB4-41AB-8D86-D787D0049D93}" name="name_of_school" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A6CEFC88-1E9B-4ACD-A4E6-9F15FE1CD585}" name="Elementary, Middle, or High School" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{11506E8D-D773-4C12-9920-56970A80B318}" name="average_teacher_attendance" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{85696472-40F1-418D-827C-84610CAC3584}" name="Table10" displayName="Table10" ref="D12:F31" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="D12:F31" xr:uid="{85696472-40F1-418D-827C-84610CAC3584}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{400769CA-63CE-445A-A433-56F2FF2A8831}" name="name_of_school" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C5260D20-11E1-4182-92D0-F0F42C2D8C97}" name="Elementary, Middle, or High School" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{D0C9F3A6-145C-466D-94A8-D5A55C3A6883}" name="safety_score" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9308,18 +12640,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I567"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9345,7 +12677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -9374,7 +12706,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9403,7 +12735,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9432,7 +12764,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -9461,7 +12793,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -9490,7 +12822,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9516,7 +12848,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9545,7 +12877,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -9574,7 +12906,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -9603,7 +12935,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9632,7 +12964,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9661,7 +12993,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9690,7 +13022,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9719,7 +13051,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9748,7 +13080,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9777,7 +13109,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9806,7 +13138,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9835,7 +13167,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -9864,7 +13196,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9893,7 +13225,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9922,7 +13254,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9951,7 +13283,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9980,7 +13312,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -10009,7 +13341,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -10038,7 +13370,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -10067,7 +13399,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -10093,7 +13425,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -10122,7 +13454,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -10151,7 +13483,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -10180,7 +13512,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -10209,7 +13541,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -10238,7 +13570,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -10267,7 +13599,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -10296,7 +13628,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -10325,7 +13657,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -10354,7 +13686,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -10383,7 +13715,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -10412,7 +13744,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -10441,7 +13773,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -10470,7 +13802,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -10499,7 +13831,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -10528,7 +13860,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -10557,7 +13889,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -10586,7 +13918,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -10612,7 +13944,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -10641,7 +13973,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -10670,7 +14002,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -10699,7 +14031,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -10728,7 +14060,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -10757,7 +14089,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -10786,7 +14118,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -10815,7 +14147,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -10844,7 +14176,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -10873,7 +14205,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -10902,7 +14234,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -10931,7 +14263,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -10957,7 +14289,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -10983,7 +14315,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -11009,7 +14341,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -11038,7 +14370,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -11067,7 +14399,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -11096,7 +14428,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -11125,7 +14457,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -11154,7 +14486,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -11183,7 +14515,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -11212,7 +14544,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -11241,7 +14573,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -11270,7 +14602,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -11299,7 +14631,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -11328,7 +14660,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -11357,7 +14689,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -11386,7 +14718,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -11415,7 +14747,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -11444,7 +14776,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -11473,7 +14805,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -11502,7 +14834,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -11531,7 +14863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -11560,7 +14892,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -11589,7 +14921,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -11618,7 +14950,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -11647,7 +14979,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -11673,7 +15005,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -11702,7 +15034,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -11731,7 +15063,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -11760,7 +15092,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -11789,7 +15121,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -11818,7 +15150,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -11847,7 +15179,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -11876,7 +15208,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -11902,7 +15234,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -11931,7 +15263,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -11960,7 +15292,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -11989,7 +15321,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -12018,7 +15350,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -12047,7 +15379,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -12076,7 +15408,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -12105,7 +15437,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -12134,7 +15466,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -12163,7 +15495,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -12192,7 +15524,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -12218,7 +15550,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -12247,7 +15579,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -12276,7 +15608,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -12305,7 +15637,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -12334,7 +15666,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -12360,7 +15692,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -12386,7 +15718,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -12415,7 +15747,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -12444,7 +15776,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -12473,7 +15805,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -12502,7 +15834,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -12531,7 +15863,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -12560,7 +15892,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -12589,7 +15921,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -12618,7 +15950,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -12647,7 +15979,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -12676,7 +16008,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -12705,7 +16037,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -12734,7 +16066,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -12763,7 +16095,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -12792,7 +16124,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -12821,7 +16153,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -12850,7 +16182,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -12879,7 +16211,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -12908,7 +16240,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -12937,7 +16269,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -12966,7 +16298,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -12995,7 +16327,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -13024,7 +16356,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -13053,7 +16385,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -13082,7 +16414,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -13108,7 +16440,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -13137,7 +16469,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -13166,7 +16498,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -13195,7 +16527,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -13224,7 +16556,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -13253,7 +16585,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -13282,7 +16614,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -13311,7 +16643,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -13340,7 +16672,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -13369,7 +16701,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -13398,7 +16730,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -13427,7 +16759,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -13456,7 +16788,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -13485,7 +16817,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -13514,7 +16846,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -13543,7 +16875,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -13572,7 +16904,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -13601,7 +16933,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -13630,7 +16962,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -13659,7 +16991,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -13688,7 +17020,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -13717,7 +17049,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -13746,7 +17078,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -13775,7 +17107,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -13801,7 +17133,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -13827,7 +17159,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -13853,7 +17185,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -13882,7 +17214,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -13911,7 +17243,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -13940,7 +17272,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -13969,7 +17301,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -13998,7 +17330,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -14027,7 +17359,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -14056,7 +17388,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -14085,7 +17417,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -14114,7 +17446,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -14143,7 +17475,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -14172,7 +17504,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -14201,7 +17533,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -14230,7 +17562,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -14259,7 +17591,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -14288,7 +17620,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -14317,7 +17649,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -14346,7 +17678,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -14375,7 +17707,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -14404,7 +17736,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -14433,7 +17765,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -14462,7 +17794,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
@@ -14491,7 +17823,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -14520,7 +17852,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -14546,7 +17878,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -14575,7 +17907,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
@@ -14604,7 +17936,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -14633,7 +17965,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
@@ -14662,7 +17994,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
@@ -14691,7 +18023,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
@@ -14720,7 +18052,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -14749,7 +18081,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -14778,7 +18110,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
@@ -14804,7 +18136,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -14830,7 +18162,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -14859,7 +18191,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
@@ -14888,7 +18220,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>193</v>
       </c>
@@ -14917,7 +18249,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
@@ -14946,7 +18278,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>195</v>
       </c>
@@ -14975,7 +18307,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
@@ -15004,7 +18336,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
@@ -15033,7 +18365,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
@@ -15062,7 +18394,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
@@ -15091,7 +18423,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
@@ -15120,7 +18452,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
@@ -15146,7 +18478,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
@@ -15175,7 +18507,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>203</v>
       </c>
@@ -15204,7 +18536,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>204</v>
       </c>
@@ -15233,7 +18565,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
@@ -15262,7 +18594,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
@@ -15291,7 +18623,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
@@ -15317,7 +18649,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
@@ -15346,7 +18678,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
@@ -15375,7 +18707,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
@@ -15404,7 +18736,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
@@ -15433,7 +18765,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
@@ -15462,7 +18794,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
@@ -15491,7 +18823,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>214</v>
       </c>
@@ -15520,7 +18852,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>215</v>
       </c>
@@ -15549,7 +18881,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>216</v>
       </c>
@@ -15578,7 +18910,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>217</v>
       </c>
@@ -15607,7 +18939,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>218</v>
       </c>
@@ -15636,7 +18968,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>219</v>
       </c>
@@ -15665,7 +18997,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>220</v>
       </c>
@@ -15694,7 +19026,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
@@ -15723,7 +19055,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
@@ -15752,7 +19084,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>223</v>
       </c>
@@ -15778,7 +19110,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>224</v>
       </c>
@@ -15807,7 +19139,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>225</v>
       </c>
@@ -15836,7 +19168,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>226</v>
       </c>
@@ -15865,7 +19197,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>227</v>
       </c>
@@ -15894,7 +19226,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>228</v>
       </c>
@@ -15923,7 +19255,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>229</v>
       </c>
@@ -15952,7 +19284,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>230</v>
       </c>
@@ -15981,7 +19313,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
@@ -16010,7 +19342,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
@@ -16039,7 +19371,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>233</v>
       </c>
@@ -16068,7 +19400,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>234</v>
       </c>
@@ -16097,7 +19429,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>235</v>
       </c>
@@ -16126,7 +19458,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>236</v>
       </c>
@@ -16155,7 +19487,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
@@ -16184,7 +19516,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
@@ -16213,7 +19545,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
@@ -16242,7 +19574,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>240</v>
       </c>
@@ -16271,7 +19603,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
@@ -16300,7 +19632,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>242</v>
       </c>
@@ -16329,7 +19661,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>243</v>
       </c>
@@ -16358,7 +19690,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
@@ -16387,7 +19719,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
@@ -16416,7 +19748,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>246</v>
       </c>
@@ -16445,7 +19777,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
@@ -16471,7 +19803,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
@@ -16497,7 +19829,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>249</v>
       </c>
@@ -16523,7 +19855,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>250</v>
       </c>
@@ -16546,7 +19878,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>251</v>
       </c>
@@ -16575,7 +19907,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>252</v>
       </c>
@@ -16604,7 +19936,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>253</v>
       </c>
@@ -16633,7 +19965,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>254</v>
       </c>
@@ -16662,7 +19994,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>255</v>
       </c>
@@ -16688,7 +20020,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>256</v>
       </c>
@@ -16717,7 +20049,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>257</v>
       </c>
@@ -16746,7 +20078,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>258</v>
       </c>
@@ -16775,7 +20107,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>259</v>
       </c>
@@ -16804,7 +20136,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>260</v>
       </c>
@@ -16833,7 +20165,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>261</v>
       </c>
@@ -16862,7 +20194,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>262</v>
       </c>
@@ -16891,7 +20223,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>263</v>
       </c>
@@ -16917,7 +20249,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>264</v>
       </c>
@@ -16943,7 +20275,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>265</v>
       </c>
@@ -16972,7 +20304,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>266</v>
       </c>
@@ -17001,7 +20333,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>267</v>
       </c>
@@ -17030,7 +20362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>268</v>
       </c>
@@ -17059,7 +20391,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>269</v>
       </c>
@@ -17088,7 +20420,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>270</v>
       </c>
@@ -17117,7 +20449,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>271</v>
       </c>
@@ -17146,7 +20478,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>272</v>
       </c>
@@ -17175,7 +20507,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>273</v>
       </c>
@@ -17204,7 +20536,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>274</v>
       </c>
@@ -17233,7 +20565,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>275</v>
       </c>
@@ -17262,7 +20594,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>276</v>
       </c>
@@ -17291,7 +20623,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>277</v>
       </c>
@@ -17317,7 +20649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>278</v>
       </c>
@@ -17343,7 +20675,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>279</v>
       </c>
@@ -17372,7 +20704,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>280</v>
       </c>
@@ -17401,7 +20733,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>281</v>
       </c>
@@ -17430,7 +20762,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>282</v>
       </c>
@@ -17459,7 +20791,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>283</v>
       </c>
@@ -17488,7 +20820,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>284</v>
       </c>
@@ -17517,7 +20849,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>285</v>
       </c>
@@ -17546,7 +20878,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>286</v>
       </c>
@@ -17575,7 +20907,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>287</v>
       </c>
@@ -17604,7 +20936,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>288</v>
       </c>
@@ -17633,7 +20965,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>289</v>
       </c>
@@ -17662,7 +20994,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>290</v>
       </c>
@@ -17691,7 +21023,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>291</v>
       </c>
@@ -17720,7 +21052,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>292</v>
       </c>
@@ -17749,7 +21081,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>293</v>
       </c>
@@ -17778,7 +21110,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>294</v>
       </c>
@@ -17807,7 +21139,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>295</v>
       </c>
@@ -17836,7 +21168,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>296</v>
       </c>
@@ -17865,7 +21197,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>297</v>
       </c>
@@ -17894,7 +21226,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>298</v>
       </c>
@@ -17923,7 +21255,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>299</v>
       </c>
@@ -17952,7 +21284,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>300</v>
       </c>
@@ -17981,7 +21313,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>301</v>
       </c>
@@ -18010,7 +21342,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>302</v>
       </c>
@@ -18039,7 +21371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>303</v>
       </c>
@@ -18068,7 +21400,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>304</v>
       </c>
@@ -18097,7 +21429,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>305</v>
       </c>
@@ -18126,7 +21458,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>306</v>
       </c>
@@ -18155,7 +21487,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>307</v>
       </c>
@@ -18181,7 +21513,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>308</v>
       </c>
@@ -18210,7 +21542,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>309</v>
       </c>
@@ -18239,7 +21571,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>310</v>
       </c>
@@ -18268,7 +21600,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>311</v>
       </c>
@@ -18297,7 +21629,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>312</v>
       </c>
@@ -18326,7 +21658,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>313</v>
       </c>
@@ -18355,7 +21687,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>314</v>
       </c>
@@ -18384,7 +21716,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>315</v>
       </c>
@@ -18413,7 +21745,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>316</v>
       </c>
@@ -18439,7 +21771,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>317</v>
       </c>
@@ -18465,7 +21797,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>318</v>
       </c>
@@ -18494,7 +21826,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>319</v>
       </c>
@@ -18523,7 +21855,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>320</v>
       </c>
@@ -18552,7 +21884,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>321</v>
       </c>
@@ -18581,7 +21913,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>322</v>
       </c>
@@ -18610,7 +21942,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>323</v>
       </c>
@@ -18639,7 +21971,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>324</v>
       </c>
@@ -18668,7 +22000,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>325</v>
       </c>
@@ -18697,7 +22029,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>326</v>
       </c>
@@ -18726,7 +22058,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>327</v>
       </c>
@@ -18755,7 +22087,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>328</v>
       </c>
@@ -18784,7 +22116,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>329</v>
       </c>
@@ -18813,7 +22145,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>330</v>
       </c>
@@ -18842,7 +22174,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>331</v>
       </c>
@@ -18871,7 +22203,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>332</v>
       </c>
@@ -18900,7 +22232,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>333</v>
       </c>
@@ -18929,7 +22261,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>334</v>
       </c>
@@ -18955,7 +22287,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>335</v>
       </c>
@@ -18981,7 +22313,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>336</v>
       </c>
@@ -19010,7 +22342,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>337</v>
       </c>
@@ -19039,7 +22371,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>338</v>
       </c>
@@ -19068,7 +22400,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>339</v>
       </c>
@@ -19097,7 +22429,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>340</v>
       </c>
@@ -19126,7 +22458,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>341</v>
       </c>
@@ -19155,7 +22487,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>342</v>
       </c>
@@ -19184,7 +22516,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>343</v>
       </c>
@@ -19213,7 +22545,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>344</v>
       </c>
@@ -19242,7 +22574,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>345</v>
       </c>
@@ -19271,7 +22603,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>346</v>
       </c>
@@ -19300,7 +22632,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>347</v>
       </c>
@@ -19329,7 +22661,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>348</v>
       </c>
@@ -19358,7 +22690,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>349</v>
       </c>
@@ -19387,7 +22719,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>350</v>
       </c>
@@ -19416,7 +22748,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>351</v>
       </c>
@@ -19445,7 +22777,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>352</v>
       </c>
@@ -19474,7 +22806,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>353</v>
       </c>
@@ -19503,7 +22835,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>354</v>
       </c>
@@ -19532,7 +22864,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>355</v>
       </c>
@@ -19561,7 +22893,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>356</v>
       </c>
@@ -19590,7 +22922,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>357</v>
       </c>
@@ -19619,7 +22951,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>358</v>
       </c>
@@ -19648,7 +22980,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>359</v>
       </c>
@@ -19677,7 +23009,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>360</v>
       </c>
@@ -19706,7 +23038,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>361</v>
       </c>
@@ -19735,7 +23067,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>362</v>
       </c>
@@ -19764,7 +23096,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>363</v>
       </c>
@@ -19793,7 +23125,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>364</v>
       </c>
@@ -19822,7 +23154,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>365</v>
       </c>
@@ -19851,7 +23183,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>366</v>
       </c>
@@ -19880,7 +23212,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>367</v>
       </c>
@@ -19909,7 +23241,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>368</v>
       </c>
@@ -19935,7 +23267,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>369</v>
       </c>
@@ -19961,7 +23293,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>370</v>
       </c>
@@ -19987,7 +23319,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>371</v>
       </c>
@@ -20016,7 +23348,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>372</v>
       </c>
@@ -20045,7 +23377,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>373</v>
       </c>
@@ -20074,7 +23406,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>374</v>
       </c>
@@ -20103,7 +23435,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>375</v>
       </c>
@@ -20132,7 +23464,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>376</v>
       </c>
@@ -20161,7 +23493,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>377</v>
       </c>
@@ -20187,7 +23519,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>378</v>
       </c>
@@ -20213,7 +23545,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>379</v>
       </c>
@@ -20242,7 +23574,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>380</v>
       </c>
@@ -20271,7 +23603,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>381</v>
       </c>
@@ -20300,7 +23632,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>382</v>
       </c>
@@ -20329,7 +23661,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>383</v>
       </c>
@@ -20358,7 +23690,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>384</v>
       </c>
@@ -20384,7 +23716,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>385</v>
       </c>
@@ -20413,7 +23745,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>386</v>
       </c>
@@ -20442,7 +23774,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>387</v>
       </c>
@@ -20471,7 +23803,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>388</v>
       </c>
@@ -20500,7 +23832,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>389</v>
       </c>
@@ -20529,7 +23861,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>390</v>
       </c>
@@ -20558,7 +23890,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>391</v>
       </c>
@@ -20587,7 +23919,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>392</v>
       </c>
@@ -20616,7 +23948,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>393</v>
       </c>
@@ -20645,7 +23977,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>394</v>
       </c>
@@ -20674,7 +24006,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>395</v>
       </c>
@@ -20703,7 +24035,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>396</v>
       </c>
@@ -20732,7 +24064,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>397</v>
       </c>
@@ -20761,7 +24093,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>398</v>
       </c>
@@ -20790,7 +24122,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>399</v>
       </c>
@@ -20819,7 +24151,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>400</v>
       </c>
@@ -20848,7 +24180,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>401</v>
       </c>
@@ -20877,7 +24209,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>402</v>
       </c>
@@ -20906,7 +24238,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>403</v>
       </c>
@@ -20935,7 +24267,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>404</v>
       </c>
@@ -20964,7 +24296,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>405</v>
       </c>
@@ -20993,7 +24325,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>406</v>
       </c>
@@ -21022,7 +24354,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>407</v>
       </c>
@@ -21051,7 +24383,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>408</v>
       </c>
@@ -21080,7 +24412,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>409</v>
       </c>
@@ -21109,7 +24441,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>410</v>
       </c>
@@ -21138,7 +24470,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>411</v>
       </c>
@@ -21167,7 +24499,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>412</v>
       </c>
@@ -21196,7 +24528,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>413</v>
       </c>
@@ -21225,7 +24557,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>414</v>
       </c>
@@ -21254,7 +24586,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>415</v>
       </c>
@@ -21283,7 +24615,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>416</v>
       </c>
@@ -21312,7 +24644,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>417</v>
       </c>
@@ -21341,7 +24673,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>418</v>
       </c>
@@ -21370,7 +24702,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>419</v>
       </c>
@@ -21399,7 +24731,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>420</v>
       </c>
@@ -21428,7 +24760,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>421</v>
       </c>
@@ -21457,7 +24789,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>422</v>
       </c>
@@ -21486,7 +24818,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>423</v>
       </c>
@@ -21515,7 +24847,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>424</v>
       </c>
@@ -21544,7 +24876,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>425</v>
       </c>
@@ -21573,7 +24905,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>426</v>
       </c>
@@ -21602,7 +24934,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>427</v>
       </c>
@@ -21628,7 +24960,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>428</v>
       </c>
@@ -21654,7 +24986,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>429</v>
       </c>
@@ -21680,7 +25012,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>430</v>
       </c>
@@ -21709,7 +25041,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>431</v>
       </c>
@@ -21738,7 +25070,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>432</v>
       </c>
@@ -21767,7 +25099,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>433</v>
       </c>
@@ -21796,7 +25128,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>434</v>
       </c>
@@ -21825,7 +25157,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>435</v>
       </c>
@@ -21854,7 +25186,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>436</v>
       </c>
@@ -21883,7 +25215,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>437</v>
       </c>
@@ -21912,7 +25244,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>438</v>
       </c>
@@ -21941,7 +25273,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>439</v>
       </c>
@@ -21970,7 +25302,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>440</v>
       </c>
@@ -21999,7 +25331,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>441</v>
       </c>
@@ -22028,7 +25360,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>442</v>
       </c>
@@ -22057,7 +25389,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>443</v>
       </c>
@@ -22086,7 +25418,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>444</v>
       </c>
@@ -22115,7 +25447,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>445</v>
       </c>
@@ -22144,7 +25476,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>446</v>
       </c>
@@ -22173,7 +25505,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>447</v>
       </c>
@@ -22202,7 +25534,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>448</v>
       </c>
@@ -22231,7 +25563,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>449</v>
       </c>
@@ -22260,7 +25592,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>450</v>
       </c>
@@ -22289,7 +25621,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>451</v>
       </c>
@@ -22318,7 +25650,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>452</v>
       </c>
@@ -22347,7 +25679,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>453</v>
       </c>
@@ -22376,7 +25708,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>454</v>
       </c>
@@ -22405,7 +25737,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>455</v>
       </c>
@@ -22434,7 +25766,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>456</v>
       </c>
@@ -22463,7 +25795,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>457</v>
       </c>
@@ -22492,7 +25824,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>458</v>
       </c>
@@ -22521,7 +25853,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>459</v>
       </c>
@@ -22550,7 +25882,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>460</v>
       </c>
@@ -22579,7 +25911,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>461</v>
       </c>
@@ -22605,7 +25937,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>462</v>
       </c>
@@ -22634,7 +25966,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>463</v>
       </c>
@@ -22663,7 +25995,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>464</v>
       </c>
@@ -22692,7 +26024,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>465</v>
       </c>
@@ -22721,7 +26053,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>466</v>
       </c>
@@ -22750,7 +26082,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>467</v>
       </c>
@@ -22779,7 +26111,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>468</v>
       </c>
@@ -22808,7 +26140,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>469</v>
       </c>
@@ -22837,7 +26169,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>470</v>
       </c>
@@ -22863,7 +26195,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>471</v>
       </c>
@@ -22892,7 +26224,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>472</v>
       </c>
@@ -22921,7 +26253,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>473</v>
       </c>
@@ -22950,7 +26282,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>474</v>
       </c>
@@ -22979,7 +26311,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>475</v>
       </c>
@@ -23008,7 +26340,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>476</v>
       </c>
@@ -23037,7 +26369,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>477</v>
       </c>
@@ -23066,7 +26398,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>478</v>
       </c>
@@ -23092,7 +26424,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>479</v>
       </c>
@@ -23121,7 +26453,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>480</v>
       </c>
@@ -23150,7 +26482,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>481</v>
       </c>
@@ -23179,7 +26511,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>482</v>
       </c>
@@ -23208,7 +26540,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>483</v>
       </c>
@@ -23237,7 +26569,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>484</v>
       </c>
@@ -23266,7 +26598,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>485</v>
       </c>
@@ -23295,7 +26627,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>486</v>
       </c>
@@ -23324,7 +26656,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>487</v>
       </c>
@@ -23353,7 +26685,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>488</v>
       </c>
@@ -23382,7 +26714,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>489</v>
       </c>
@@ -23411,7 +26743,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>490</v>
       </c>
@@ -23440,7 +26772,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>491</v>
       </c>
@@ -23469,7 +26801,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>492</v>
       </c>
@@ -23498,7 +26830,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>493</v>
       </c>
@@ -23527,7 +26859,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>494</v>
       </c>
@@ -23556,7 +26888,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>495</v>
       </c>
@@ -23585,7 +26917,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>496</v>
       </c>
@@ -23614,7 +26946,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>497</v>
       </c>
@@ -23643,7 +26975,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>498</v>
       </c>
@@ -23669,7 +27001,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>499</v>
       </c>
@@ -23698,7 +27030,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="502" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>500</v>
       </c>
@@ -23727,7 +27059,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="503" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>501</v>
       </c>
@@ -23753,7 +27085,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="504" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>502</v>
       </c>
@@ -23782,7 +27114,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="505" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>503</v>
       </c>
@@ -23811,7 +27143,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="506" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>504</v>
       </c>
@@ -23840,7 +27172,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>505</v>
       </c>
@@ -23869,7 +27201,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="508" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>506</v>
       </c>
@@ -23898,7 +27230,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="509" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>507</v>
       </c>
@@ -23927,7 +27259,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="510" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>508</v>
       </c>
@@ -23956,7 +27288,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="511" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>509</v>
       </c>
@@ -23985,7 +27317,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="512" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>510</v>
       </c>
@@ -24014,7 +27346,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="513" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>511</v>
       </c>
@@ -24043,7 +27375,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="514" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>512</v>
       </c>
@@ -24072,7 +27404,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="515" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>513</v>
       </c>
@@ -24101,7 +27433,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="516" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>514</v>
       </c>
@@ -24130,7 +27462,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="517" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>515</v>
       </c>
@@ -24159,7 +27491,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="518" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>516</v>
       </c>
@@ -24188,7 +27520,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="519" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>517</v>
       </c>
@@ -24217,7 +27549,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="520" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>518</v>
       </c>
@@ -24246,7 +27578,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="521" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>519</v>
       </c>
@@ -24272,7 +27604,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>520</v>
       </c>
@@ -24301,7 +27633,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="523" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>521</v>
       </c>
@@ -24330,7 +27662,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="524" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>522</v>
       </c>
@@ -24359,7 +27691,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="525" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>523</v>
       </c>
@@ -24388,7 +27720,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="526" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>524</v>
       </c>
@@ -24417,7 +27749,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="527" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>525</v>
       </c>
@@ -24446,7 +27778,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="528" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>526</v>
       </c>
@@ -24475,7 +27807,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="529" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>527</v>
       </c>
@@ -24504,7 +27836,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="530" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>528</v>
       </c>
@@ -24533,7 +27865,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="531" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>529</v>
       </c>
@@ -24562,7 +27894,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="532" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>530</v>
       </c>
@@ -24591,7 +27923,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>531</v>
       </c>
@@ -24620,7 +27952,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="534" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>532</v>
       </c>
@@ -24649,7 +27981,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="535" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>533</v>
       </c>
@@ -24675,7 +28007,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="536" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>534</v>
       </c>
@@ -24704,7 +28036,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="537" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>535</v>
       </c>
@@ -24733,7 +28065,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="538" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>536</v>
       </c>
@@ -24762,7 +28094,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="539" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>537</v>
       </c>
@@ -24791,7 +28123,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="540" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>538</v>
       </c>
@@ -24820,7 +28152,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="541" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>539</v>
       </c>
@@ -24849,7 +28181,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="542" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>540</v>
       </c>
@@ -24878,7 +28210,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="543" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>541</v>
       </c>
@@ -24904,7 +28236,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="544" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>542</v>
       </c>
@@ -24933,7 +28265,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="545" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>543</v>
       </c>
@@ -24962,7 +28294,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="546" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>544</v>
       </c>
@@ -24991,7 +28323,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="547" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>545</v>
       </c>
@@ -25020,7 +28352,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="548" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>546</v>
       </c>
@@ -25049,7 +28381,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="549" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>547</v>
       </c>
@@ -25078,7 +28410,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="550" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>548</v>
       </c>
@@ -25104,7 +28436,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="551" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>549</v>
       </c>
@@ -25133,7 +28465,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="552" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>550</v>
       </c>
@@ -25162,7 +28494,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="553" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>551</v>
       </c>
@@ -25191,7 +28523,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="554" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>552</v>
       </c>
@@ -25220,7 +28552,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="555" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>553</v>
       </c>
@@ -25249,7 +28581,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="556" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>554</v>
       </c>
@@ -25278,7 +28610,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="557" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>555</v>
       </c>
@@ -25307,7 +28639,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="558" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>556</v>
       </c>
@@ -25336,7 +28668,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>557</v>
       </c>
@@ -25365,7 +28697,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="560" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>558</v>
       </c>
@@ -25394,7 +28726,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>559</v>
       </c>
@@ -25423,7 +28755,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="562" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>560</v>
       </c>
@@ -25452,7 +28784,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="563" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>561</v>
       </c>
@@ -25481,7 +28813,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>562</v>
       </c>
@@ -25510,7 +28842,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="565" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>563</v>
       </c>
@@ -25539,7 +28871,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="566" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>564</v>
       </c>
@@ -25568,7 +28900,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="567" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>565</v>
       </c>
@@ -25603,7 +28935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H567"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -44901,7 +48233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -44914,7 +48246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44966,10 +48298,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -44978,4 +48310,529 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05637BB2-2747-48FA-9D74-C6747469D40A}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="22.875" customWidth="1"/>
+    <col min="9" max="9" width="27" customWidth="1"/>
+    <col min="10" max="10" width="22.875" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5">
+        <v>258943</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="5">
+        <v>90130</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="5">
+        <v>5273</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="D5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="5">
+        <v>140</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5">
+        <v>549</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="5">
+        <v>786</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="5">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5">
+        <v>910</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="5">
+        <v>963</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1317</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1378</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1431</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="36" x14ac:dyDescent="0.3">
+      <c r="D17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="D18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="D19" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="36" x14ac:dyDescent="0.3">
+      <c r="D20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="D21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="D22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="48" x14ac:dyDescent="0.3">
+      <c r="D23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="36" x14ac:dyDescent="0.3">
+      <c r="D24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="D25" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="D26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="D27" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="D28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" ht="36" x14ac:dyDescent="0.3">
+      <c r="D29" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="D30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="D31" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="5">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="5">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
 </file>